--- a/github-scraper/data/website.xlsx
+++ b/github-scraper/data/website.xlsx
@@ -1,110 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>website_url</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>favicon</t>
-  </si>
-  <si>
-    <t>main_links</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>https://www.aibase.com/</t>
-  </si>
-  <si>
-    <t>AIbase - Your Gateway to AGI</t>
-  </si>
-  <si>
-    <t>AIbase is your all-in-one hub for navigating the exciting world of artificial intelligence. Dive into cutting-edge AI news, explore lucrative AI opportunities, master the craft with our in-depth tutorials, discover innovative AI products, and bring your ideas to life on our robust development platform. Whether you're an AI enthusiast or a seasoned pro, AIbase equips you with the knowledge and tools to thrive in the AI revolution and contribute to the journey towards Artificial General Intelligence (AGI).</t>
-  </si>
-  <si>
-    <t>artificial intelligence, AGI, machine learning, AI innovations, AI tools, AI tutorials, AI news, AI development, AI applications, prompt engineering, AI monetization, future tech, AIbase product library, AI breakthroughs</t>
-  </si>
-  <si>
-    <t>https://www.aibase.com/favicon.ico</t>
-  </si>
-  <si>
-    <t>https://www.aibase.com/cases/type/video
-https://www.aibase.com/tools
-https://www.aibase.com/cases
-https://www.aibase.com/course
-https://www.aibase.com/best-ai-tools/global-all-traffic-in-month-02-2025
-https://www.aibase.com/repos/ranking/growing-spped
-https://www.aibase.com/daily
-https://www.aibase.com/best-ai-tools/global-all-dropping-in-month-02-2025
-https://www.aibase.com/best-ai-tools/global-imagegeneration-traffic-in-month-02-2025
-https://www.aibase.com/ai-hardware
-https://www.aibase.com/repos/topic/deepseek
-https://www.aibase.com/cases/type/pic
-https://www.aibase.com/cases/type/audio
-https://www.aibase.com/best-ai-tools/cn-all-traffic-in-month-02-2025
-https://www.aibase.com/repos/topic/llm
-https://www.aibase.com/best-ai-tools/in-all-traffic-in-month-02-2025
-https://www.aibase.com/repos/topic/tts
-https://www.aibase.com/best-ai-tools/global-videogeneration-traffic-in-month-02-2025
-https://www.aibase.com/news
-https://www.aibase.com/best-ai-tools/all-traffic-in-week-10-2025</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -119,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -441,62 +420,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>website_url</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>favicon</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>main_links</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>contacts</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://www.aibase.com/</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AIbase - Your Gateway to AGI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>AIbase is your all-in-one hub for navigating the exciting world of artificial intelligence. Dive into cutting-edge AI news, explore lucrative AI opportunities, master the craft with our in-depth tutorials, discover innovative AI products, and bring your ideas to life on our robust development platform. Whether you're an AI enthusiast or a seasoned pro, AIbase equips you with the knowledge and tools to thrive in the AI revolution and contribute to the journey towards Artificial General Intelligence (AGI).</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>artificial intelligence, AGI, machine learning, AI innovations, AI tools, AI tutorials, AI news, AI development, AI applications, prompt engineering, AI monetization, future tech, AIbase product library, AI breakthroughs</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.aibase.com/favicon.ico</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.aibase.com/cases/type/video
+https://www.aibase.com/tools
+https://www.aibase.com/cases
+https://www.aibase.com/course
+https://www.aibase.com/best-ai-tools/global-all-traffic-in-month-02-2025
+https://www.aibase.com/repos/ranking/growing-spped
+https://www.aibase.com/daily
+https://www.aibase.com/best-ai-tools/global-all-dropping-in-month-02-2025
+https://www.aibase.com/best-ai-tools/global-imagegeneration-traffic-in-month-02-2025
+https://www.aibase.com/ai-hardware
+https://www.aibase.com/repos/topic/deepseek
+https://www.aibase.com/cases/type/pic
+https://www.aibase.com/cases/type/audio
+https://www.aibase.com/best-ai-tools/cn-all-traffic-in-month-02-2025
+https://www.aibase.com/repos/topic/llm
+https://www.aibase.com/best-ai-tools/in-all-traffic-in-month-02-2025
+https://www.aibase.com/repos/topic/tts
+https://www.aibase.com/best-ai-tools/global-videogeneration-traffic-in-month-02-2025
+https://www.aibase.com/news
+https://www.aibase.com/best-ai-tools/all-traffic-in-week-10-2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://deepwiki.com/</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DeepWiki</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DeepWiki provides up-to-date documentation you can talk to, for every repo in the world. Think Deep Research for GitHub - powered by Devin.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://deepwiki.com/favicon.ico</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://deepwiki.com/meta-llama/llama-models
+https://deepwiki.com/sqlite/sqlite
+https://deepwiki.com/expressjs/express
+https://deepwiki.com/microsoft/markitdown
+https://deepwiki.com/redis/redis
+https://deepwiki.com/localsend/localsend
+https://deepwiki.com/mark3labs/mcp-go
+https://deepwiki.com/anthropics/anthropic-sdk-python
+https://deepwiki.com/mermaid-js/mermaid
+https://deepwiki.com/infiniflow/ragflow
+https://deepwiki.com/microsoft/playwright
+https://deepwiki.com/microsoft/vscode
+https://deepwiki.com/langchain-ai/langchain
+https://deepwiki.com/langchain-ai/local-deep-researcher
+https://deepwiki.com/microsoft/monaco-editor
+https://deepwiki.com/openai/openai-python
+https://deepwiki.com/public-apis/public-apis
+https://deepwiki.com/openai/openai-agents-python
+https://deepwiki.com/huggingface/transformers
+https://deepwiki.com/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Email: support@cognition.ai
+Email: scutjy2015@163.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://devin.ai/</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Devin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Devin is a collaborative AI teammate built to help ambitious engineering teams achieve more.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://devin.ai/favicon.ico</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://devin.ai/enterprise
+https://devin.ai/customers
+https://devin.ai/
+https://devin.ai/pricing</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>